--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,14 +866,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 59332-2022</t>
+          <t>A 31706-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44904</v>
+        <v>45834</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,17 +885,22 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -910,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -920,130 +925,125 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Blomkålssvamp
+Trana</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 59332-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44904</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGSÖR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Ekticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 59332-2022 artfynd.xlsx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 59332-2022 karta.png", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 59332-2022 FSC-klagomål.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 59332-2022 FSC-klagomål mail.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 59332-2022 tillsynsbegäran.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 59332-2022 tillsynsbegäran mail.docx", "A 59332-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31706-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45834</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGSÖR</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp
-Trana</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44286</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44600</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44620</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 19082-2023</t>
+          <t>A 61262-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45048</v>
+        <v>45645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1845,13 +1845,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1888,14 +1883,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 61264-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1903,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1945,14 +1940,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 19917-2025</t>
+          <t>A 41446-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45771</v>
+        <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1964,8 +1959,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 36539-2021</t>
+          <t>A 30621-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44391.4878587963</v>
+        <v>45112.42612268519</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 36638-2021</t>
+          <t>A 30623-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44392</v>
+        <v>45112.4308912037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 11771-2025</t>
+          <t>A 51096-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45727</v>
+        <v>45603.47366898148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 36638-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>44392</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52809-2022</t>
+          <t>A 20197-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44875</v>
+        <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2249,13 +2249,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2292,14 +2287,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 40815-2022</t>
+          <t>A 40607-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44824</v>
+        <v>45556.70357638889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2307,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>15.9</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2349,14 +2344,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 55072-2021</t>
+          <t>A 44720-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44474.64513888889</v>
+        <v>44438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2364,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>11.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2406,14 +2401,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 55079-2021</t>
+          <t>A 11771-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44474</v>
+        <v>45727</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2421,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2463,14 +2458,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52795-2023</t>
+          <t>A 5952-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45226.35605324074</v>
+        <v>45335</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2478,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2520,14 +2515,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 38938-2021</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44411.63415509259</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2539,13 +2534,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2582,14 +2572,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52802-2022</t>
+          <t>A 59805-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44875</v>
+        <v>45639.60199074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,13 +2591,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2644,14 +2629,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 2850-2026</t>
+          <t>A 1040-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46038.47877314815</v>
+        <v>45666.54564814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2649,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2701,14 +2686,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 6734-2022</t>
+          <t>A 39717-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44602.46284722222</v>
+        <v>45167.62804398148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2721,7 +2706,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>32.3</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2758,14 +2743,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2800-2026</t>
+          <t>A 38308-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46038</v>
+        <v>45161.66641203704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2778,7 +2763,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2815,14 +2800,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 61260-2025</t>
+          <t>A 55003-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46000</v>
+        <v>44886.51076388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2835,7 +2820,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2872,14 +2857,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30621-2023</t>
+          <t>A 47123-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45112.42612268519</v>
+        <v>45586.5691087963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2892,7 +2877,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2929,14 +2914,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30623-2023</t>
+          <t>A 40815-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45112.4308912037</v>
+        <v>44824</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2949,7 +2934,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>15.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2986,14 +2971,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 59853-2022</t>
+          <t>A 33022-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44908</v>
+        <v>45840</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3006,7 +2991,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3043,14 +3028,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16735-2023</t>
+          <t>A 33034-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45030.71976851852</v>
+        <v>45840</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3048,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3100,14 +3085,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3683-2023</t>
+          <t>A 33035-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44950</v>
+        <v>45840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3119,13 +3104,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>6.3</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3162,14 +3142,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 23574-2023</t>
+          <t>A 55072-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45077</v>
+        <v>44474.64513888889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3162,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3219,14 +3199,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 1906-2022</t>
+          <t>A 55079-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44575.39444444444</v>
+        <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3219,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3276,14 +3256,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41446-2023</t>
+          <t>A 10516-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45175</v>
+        <v>44623.71763888889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,13 +3275,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3338,14 +3313,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30634-2023</t>
+          <t>A 10517-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45112.45543981482</v>
+        <v>44623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3358,7 +3333,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.2</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3395,14 +3370,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 26382-2023</t>
+          <t>A 50058-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45092</v>
+        <v>44456.54690972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3420,7 +3395,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>20.3</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3457,14 +3432,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 39269-2023</t>
+          <t>A 19917-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45166.49605324074</v>
+        <v>45771</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3477,7 +3452,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3514,14 +3489,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 59612-2021</t>
+          <t>A 6734-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44491</v>
+        <v>44602.46284722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3534,7 +3509,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>32.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3571,14 +3546,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19266-2024</t>
+          <t>A 30634-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45428.62668981482</v>
+        <v>45112.45543981482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3591,7 +3566,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3628,14 +3603,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 10516-2022</t>
+          <t>A 52795-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44623.71763888889</v>
+        <v>45226.35605324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3648,7 +3623,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3685,14 +3660,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10517-2022</t>
+          <t>A 2850-2026</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44623</v>
+        <v>46038.47877314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3705,7 +3680,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3742,14 +3717,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39717-2023</t>
+          <t>A 2800-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45167.62804398148</v>
+        <v>46038</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3762,7 +3737,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3799,14 +3774,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61262-2024</t>
+          <t>A 61260-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45645</v>
+        <v>46000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3819,7 +3794,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3856,14 +3831,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 61264-2024</t>
+          <t>A 16735-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45645</v>
+        <v>45030.71976851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3876,7 +3851,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3913,14 +3888,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55003-2022</t>
+          <t>A 19082-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44886.51076388889</v>
+        <v>45048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,8 +3907,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3970,14 +3950,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59609-2021</t>
+          <t>A 38938-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44491.69118055556</v>
+        <v>44411.63415509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,8 +3969,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>12.7</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4027,14 +4012,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 5952-2024</t>
+          <t>A 26029-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45335</v>
+        <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4046,8 +4031,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4084,14 +4074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20197-2023</t>
+          <t>A 59612-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45055</v>
+        <v>44491</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4104,7 +4094,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4141,14 +4131,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40607-2024</t>
+          <t>A 52802-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45556.70357638889</v>
+        <v>44875</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,8 +4150,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4198,14 +4193,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59805-2024</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45639.60199074074</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4218,7 +4213,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4255,14 +4250,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8193-2023</t>
+          <t>A 39269-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44974</v>
+        <v>45166.49605324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,13 +4269,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>10.5</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4317,14 +4307,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8228-2023</t>
+          <t>A 59609-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44974</v>
+        <v>44491.69118055556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4327,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4374,14 +4364,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 51096-2024</t>
+          <t>A 19266-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45603.47366898148</v>
+        <v>45428.62668981482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4384,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4431,14 +4421,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47123-2024</t>
+          <t>A 52809-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45586.5691087963</v>
+        <v>44875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,8 +4440,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4488,14 +4483,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38308-2023</t>
+          <t>A 3683-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45161.66641203704</v>
+        <v>44950</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,8 +4502,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4545,14 +4545,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50058-2021</t>
+          <t>A 1906-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44456.54690972222</v>
+        <v>44575.39444444444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,13 +4564,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4607,14 +4602,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26029-2022</t>
+          <t>A 36539-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44734</v>
+        <v>44391.4878587963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4626,13 +4621,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>9.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4669,14 +4659,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31883-2022</t>
+          <t>A 59853-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44777</v>
+        <v>44908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4689,7 +4679,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4726,14 +4716,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44720-2021</t>
+          <t>A 8193-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44438</v>
+        <v>44974</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4745,8 +4735,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4783,14 +4778,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52789-2024</t>
+          <t>A 8228-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45610.55425925926</v>
+        <v>44974</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4803,7 +4798,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>13.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4840,14 +4835,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60736-2024</t>
+          <t>A 31883-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45644</v>
+        <v>44777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4860,7 +4855,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4897,14 +4892,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24023-2025</t>
+          <t>A 23574-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45796</v>
+        <v>45077</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4917,7 +4912,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4954,14 +4949,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 19420-2024</t>
+          <t>A 26382-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45429.42680555556</v>
+        <v>45092</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4973,8 +4968,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>3.8</v>
+        <v>20.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5011,14 +5011,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 60754-2024</t>
+          <t>A 60736-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>45644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5068,14 +5068,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 1040-2025</t>
+          <t>A 52789-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45666.54564814815</v>
+        <v>45610.55425925926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5125,14 +5125,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 33035-2025</t>
+          <t>A 19420-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45840</v>
+        <v>45429.42680555556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 33022-2025</t>
+          <t>A 60754-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45840</v>
+        <v>45644</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 33034-2025</t>
+          <t>A 24023-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45840</v>
+        <v>45796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45834</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44904</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44286</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44600</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44620</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>45645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>45112.42612268519</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>45112.4308912037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45603.47366898148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44392</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45556.70357638889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45727</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45335</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44491.70662037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45639.60199074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>45666.54564814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45167.62804398148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45161.66641203704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44886.51076388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>45586.5691087963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44824</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>45840</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>45840</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44474.64513888889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44623.71763888889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>44623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44456.54690972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45771</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44602.46284722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45112.45543981482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45226.35605324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>46038.47877314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>46038</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>46000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>45030.71976851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>45048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44411.63415509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44491</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44875</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44491.70662037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45166.49605324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44491.69118055556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45428.62668981482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44950</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44575.39444444444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44391.4878587963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44974</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44974</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>45077</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>45092</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>45644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>45610.55425925926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>45429.42680555556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45644</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>45796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45834</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44904</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44286</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44600</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44620</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>45645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>45112.42612268519</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>45112.4308912037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45603.47366898148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44392</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45556.70357638889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45727</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45335</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44491.70662037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45639.60199074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>45666.54564814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45167.62804398148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45161.66641203704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44886.51076388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>45586.5691087963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44824</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>45840</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>45840</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44474.64513888889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44623.71763888889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>44623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44456.54690972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45771</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44602.46284722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45112.45543981482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45226.35605324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>46038.47877314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>46038</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>46000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>45030.71976851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>45048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44411.63415509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44491</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44875</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44491.70662037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45166.49605324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44491.69118055556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45428.62668981482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44950</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44575.39444444444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44391.4878587963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44974</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44974</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>45077</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>45092</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>45644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>45610.55425925926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>45429.42680555556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45644</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>45796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,14 +866,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 31706-2025</t>
+          <t>A 59332-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45834</v>
+        <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,22 +885,17 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -915,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -925,125 +920,130 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Ekticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 59332-2022 artfynd.xlsx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 59332-2022 karta.png", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 59332-2022 FSC-klagomål.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 59332-2022 FSC-klagomål mail.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 59332-2022 tillsynsbegäran.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 59332-2022 tillsynsbegäran mail.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 31706-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGSÖR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Blomkålssvamp
 Trana</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 59332-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44904</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGSÖR</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ekticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 59332-2022 artfynd.xlsx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 59332-2022 karta.png", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 59332-2022 FSC-klagomål.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 59332-2022 FSC-klagomål mail.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 59332-2022 tillsynsbegäran.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 59332-2022 tillsynsbegäran mail.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44286</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44600</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44620</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 61262-2024</t>
+          <t>A 19082-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45645</v>
+        <v>45048</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1845,8 +1845,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1883,14 +1888,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61264-2024</t>
+          <t>A 40815-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45645</v>
+        <v>44824</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1903,7 +1908,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>15.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1940,14 +1945,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41446-2023</t>
+          <t>A 19917-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45175</v>
+        <v>45771</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1959,13 +1964,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30621-2023</t>
+          <t>A 55072-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45112.42612268519</v>
+        <v>44474.64513888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 30623-2023</t>
+          <t>A 55079-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45112.4308912037</v>
+        <v>44474</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 51096-2024</t>
+          <t>A 52795-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45603.47366898148</v>
+        <v>45226.35605324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 36638-2021</t>
+          <t>A 38938-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44392</v>
+        <v>44411.63415509259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2192,8 +2192,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2230,14 +2235,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20197-2023</t>
+          <t>A 52802-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45055</v>
+        <v>44875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2249,8 +2254,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2287,14 +2297,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 40607-2024</t>
+          <t>A 6734-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45556.70357638889</v>
+        <v>44602.46284722222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2307,7 +2317,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>32.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2344,14 +2354,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44720-2021</t>
+          <t>A 30621-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44438</v>
+        <v>45112.42612268519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2364,7 +2374,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>11.4</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2401,14 +2411,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 11771-2025</t>
+          <t>A 30623-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45727</v>
+        <v>45112.4308912037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2421,7 +2431,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2458,14 +2468,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 5952-2024</t>
+          <t>A 59853-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45335</v>
+        <v>44908</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2478,7 +2488,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2515,14 +2525,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 1040-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>45666.54564814815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2535,7 +2545,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2572,14 +2582,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 59805-2024</t>
+          <t>A 3683-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45639.60199074074</v>
+        <v>44950</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2591,8 +2601,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2629,14 +2644,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 1040-2025</t>
+          <t>A 23574-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45666.54564814815</v>
+        <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2664,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2686,14 +2701,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 39717-2023</t>
+          <t>A 33035-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45167.62804398148</v>
+        <v>45840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2706,7 +2721,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2743,14 +2758,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38308-2023</t>
+          <t>A 33022-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45161.66641203704</v>
+        <v>45840</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2763,7 +2778,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2800,14 +2815,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 55003-2022</t>
+          <t>A 33034-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44886.51076388889</v>
+        <v>45840</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2820,7 +2835,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.6</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2857,14 +2872,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 47123-2024</t>
+          <t>A 41446-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45586.5691087963</v>
+        <v>45175</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2876,8 +2891,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2914,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 40815-2022</t>
+          <t>A 30634-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44824</v>
+        <v>45112.45543981482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2934,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>15.9</v>
+        <v>6.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2971,14 +2991,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33022-2025</t>
+          <t>A 26382-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45840</v>
+        <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2990,8 +3010,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>20.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3028,14 +3053,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33034-2025</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45840</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3048,7 +3073,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3085,14 +3110,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 33035-2025</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45840</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3105,7 +3130,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3142,14 +3167,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 55072-2021</t>
+          <t>A 36539-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44474.64513888889</v>
+        <v>44391.4878587963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3162,7 +3187,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3199,14 +3224,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 55079-2021</t>
+          <t>A 36638-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44474</v>
+        <v>44392</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3219,7 +3244,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3256,14 +3281,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10516-2022</t>
+          <t>A 11771-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44623.71763888889</v>
+        <v>45727</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3276,7 +3301,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3313,14 +3338,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10517-2022</t>
+          <t>A 52809-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44623</v>
+        <v>44875</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3332,8 +3357,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3370,14 +3400,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50058-2021</t>
+          <t>A 16735-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44456.54690972222</v>
+        <v>45030.71976851852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3389,13 +3419,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3432,14 +3457,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19917-2025</t>
+          <t>A 1906-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45771</v>
+        <v>44575.39444444444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3477,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3489,14 +3514,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 6734-2022</t>
+          <t>A 39269-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44602.46284722222</v>
+        <v>45166.49605324074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3534,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>32.3</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3546,14 +3571,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30634-2023</t>
+          <t>A 59612-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45112.45543981482</v>
+        <v>44491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3591,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3603,14 +3628,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 52795-2023</t>
+          <t>A 19266-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45226.35605324074</v>
+        <v>45428.62668981482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3648,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3667,7 +3692,7 @@
         <v>46038.47877314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3749,7 @@
         <v>46038</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3781,7 +3806,7 @@
         <v>46000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3831,14 +3856,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16735-2023</t>
+          <t>A 10516-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45030.71976851852</v>
+        <v>44623.71763888889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3851,7 +3876,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>8.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3888,14 +3913,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 19082-2023</t>
+          <t>A 10517-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45048</v>
+        <v>44623</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3907,13 +3932,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3950,14 +3970,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38938-2021</t>
+          <t>A 39717-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44411.63415509259</v>
+        <v>45167.62804398148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3969,13 +3989,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4012,14 +4027,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26029-2022</t>
+          <t>A 61262-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44734</v>
+        <v>45645</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4031,13 +4046,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>9.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4074,14 +4084,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 59612-2021</t>
+          <t>A 61264-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44491</v>
+        <v>45645</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4094,7 +4104,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4131,14 +4141,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 52802-2022</t>
+          <t>A 55003-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44875</v>
+        <v>44886.51076388889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4150,13 +4160,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4193,14 +4198,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 59609-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>44491.69118055556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4218,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.8</v>
+        <v>12.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4250,14 +4255,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39269-2023</t>
+          <t>A 5952-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45166.49605324074</v>
+        <v>45335</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4275,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4307,14 +4312,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59609-2021</t>
+          <t>A 20197-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44491.69118055556</v>
+        <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4332,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>12.7</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4364,14 +4369,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 19266-2024</t>
+          <t>A 40607-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45428.62668981482</v>
+        <v>45556.70357638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4389,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4421,14 +4426,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52809-2022</t>
+          <t>A 59805-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44875</v>
+        <v>45639.60199074074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4440,13 +4445,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4483,14 +4483,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3683-2023</t>
+          <t>A 8193-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44950</v>
+        <v>44974</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.3</v>
+        <v>10.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4545,14 +4545,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 1906-2022</t>
+          <t>A 8228-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44575.39444444444</v>
+        <v>44974</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>13.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4602,14 +4602,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 36539-2021</t>
+          <t>A 51096-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44391.4878587963</v>
+        <v>45603.47366898148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4659,14 +4659,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59853-2022</t>
+          <t>A 47123-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44908</v>
+        <v>45586.5691087963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4716,14 +4716,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8193-2023</t>
+          <t>A 38308-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44974</v>
+        <v>45161.66641203704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,13 +4735,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>10.5</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4778,14 +4773,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8228-2023</t>
+          <t>A 50058-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44974</v>
+        <v>44456.54690972222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4797,8 +4792,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>13.9</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4835,14 +4835,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31883-2022</t>
+          <t>A 26029-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44777</v>
+        <v>44734</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4854,8 +4854,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4892,14 +4897,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23574-2023</t>
+          <t>A 31883-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45077</v>
+        <v>44777</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4917,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4949,14 +4954,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26382-2023</t>
+          <t>A 44720-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45092</v>
+        <v>44438</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4968,13 +4973,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>20.3</v>
+        <v>11.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5011,14 +5011,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 60736-2024</t>
+          <t>A 52789-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45644</v>
+        <v>45610.55425925926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5068,14 +5068,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52789-2024</t>
+          <t>A 60736-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45610.55425925926</v>
+        <v>45644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5125,14 +5125,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19420-2024</t>
+          <t>A 24023-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45429.42680555556</v>
+        <v>45796</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 60754-2024</t>
+          <t>A 19420-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45644</v>
+        <v>45429.42680555556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 24023-2025</t>
+          <t>A 60754-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45796</v>
+        <v>45644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,14 +866,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 59332-2022</t>
+          <t>A 31706-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44904</v>
+        <v>45834</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,17 +885,22 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -910,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -920,130 +925,125 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Blomkålssvamp
+Trana</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 59332-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44904</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGSÖR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Ekticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 59332-2022 artfynd.xlsx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 59332-2022 karta.png", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 59332-2022 FSC-klagomål.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 59332-2022 FSC-klagomål mail.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 59332-2022 tillsynsbegäran.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 59332-2022 tillsynsbegäran mail.docx", "A 59332-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31706-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45834</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGSÖR</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp
-Trana</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44286</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44600</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44620</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 19082-2023</t>
+          <t>A 61262-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45048</v>
+        <v>45645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1845,13 +1845,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1888,14 +1883,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 40815-2022</t>
+          <t>A 61264-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44824</v>
+        <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1903,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>15.9</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1945,14 +1940,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 19917-2025</t>
+          <t>A 41446-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45771</v>
+        <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1964,8 +1959,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 55072-2021</t>
+          <t>A 30621-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44474.64513888889</v>
+        <v>45112.42612268519</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 55079-2021</t>
+          <t>A 30623-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44474</v>
+        <v>45112.4308912037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52795-2023</t>
+          <t>A 59853-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45226.35605324074</v>
+        <v>44908</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 38938-2021</t>
+          <t>A 8193-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44411.63415509259</v>
+        <v>44974</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>10.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2235,14 +2235,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52802-2022</t>
+          <t>A 8228-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44875</v>
+        <v>44974</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2254,13 +2254,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>5.8</v>
+        <v>13.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2297,14 +2292,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6734-2022</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44602.46284722222</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2317,7 +2312,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>32.3</v>
+        <v>6.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2354,14 +2349,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 30621-2023</t>
+          <t>A 31883-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45112.42612268519</v>
+        <v>44777</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2374,7 +2369,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2411,14 +2406,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30623-2023</t>
+          <t>A 36638-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45112.4308912037</v>
+        <v>44392</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2431,7 +2426,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2468,14 +2463,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 59853-2022</t>
+          <t>A 51096-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44908</v>
+        <v>45603.47366898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2488,7 +2483,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2525,14 +2520,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 1040-2025</t>
+          <t>A 23574-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45666.54564814815</v>
+        <v>45077</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2545,7 +2540,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2582,14 +2577,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3683-2023</t>
+          <t>A 20197-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44950</v>
+        <v>45055</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,13 +2596,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>6.3</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2644,14 +2634,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 23574-2023</t>
+          <t>A 26382-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45077</v>
+        <v>45092</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2663,8 +2653,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>20.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2701,14 +2696,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 33035-2025</t>
+          <t>A 40607-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45840</v>
+        <v>45556.70357638889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2758,14 +2753,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33022-2025</t>
+          <t>A 11771-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45840</v>
+        <v>45727</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2778,7 +2773,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2815,14 +2810,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33034-2025</t>
+          <t>A 44720-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45840</v>
+        <v>44438</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2835,7 +2830,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>11.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2872,14 +2867,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 41446-2023</t>
+          <t>A 5952-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45175</v>
+        <v>45335</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2891,13 +2886,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2924,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30634-2023</t>
+          <t>A 60736-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45112.45543981482</v>
+        <v>45644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2944,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2991,14 +2981,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26382-2023</t>
+          <t>A 52789-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45092</v>
+        <v>45610.55425925926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,13 +3000,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>20.3</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3053,14 +3038,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 19420-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>45429.42680555556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3073,7 +3058,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3110,14 +3095,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 60754-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>45644</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3130,7 +3115,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3167,14 +3152,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36539-2021</t>
+          <t>A 24023-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44391.4878587963</v>
+        <v>45796</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3187,7 +3172,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3224,14 +3209,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 36638-2021</t>
+          <t>A 59805-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44392</v>
+        <v>45639.60199074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3244,7 +3229,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3281,14 +3266,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11771-2025</t>
+          <t>A 1040-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45727</v>
+        <v>45666.54564814815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3301,7 +3286,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3338,14 +3323,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52809-2022</t>
+          <t>A 39717-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44875</v>
+        <v>45167.62804398148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3357,13 +3342,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3400,14 +3380,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 16735-2023</t>
+          <t>A 38308-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45030.71976851852</v>
+        <v>45161.66641203704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3420,7 +3400,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>8.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3457,14 +3437,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1906-2022</t>
+          <t>A 55003-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44575.39444444444</v>
+        <v>44886.51076388889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3477,7 +3457,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3514,14 +3494,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 39269-2023</t>
+          <t>A 47123-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45166.49605324074</v>
+        <v>45586.5691087963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3534,7 +3514,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3571,14 +3551,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 59612-2021</t>
+          <t>A 33022-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44491</v>
+        <v>45840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3591,7 +3571,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3628,14 +3608,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19266-2024</t>
+          <t>A 33034-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45428.62668981482</v>
+        <v>45840</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3648,7 +3628,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3685,14 +3665,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2850-2026</t>
+          <t>A 40815-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46038.47877314815</v>
+        <v>44824</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3705,7 +3685,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>15.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3742,14 +3722,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2800-2026</t>
+          <t>A 33035-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46038</v>
+        <v>45840</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3762,7 +3742,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3799,14 +3779,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61260-2025</t>
+          <t>A 55072-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46000</v>
+        <v>44474.64513888889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3819,7 +3799,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3856,14 +3836,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10516-2022</t>
+          <t>A 55079-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44623.71763888889</v>
+        <v>44474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3876,7 +3856,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3913,14 +3893,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 10517-2022</t>
+          <t>A 10516-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44623</v>
+        <v>44623.71763888889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3933,7 +3913,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3970,14 +3950,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39717-2023</t>
+          <t>A 10517-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45167.62804398148</v>
+        <v>44623</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3990,7 +3970,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4027,14 +4007,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 61262-2024</t>
+          <t>A 50058-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45645</v>
+        <v>44456.54690972222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4046,8 +4026,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4084,14 +4069,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61264-2024</t>
+          <t>A 19917-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45645</v>
+        <v>45771</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4104,7 +4089,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4141,14 +4126,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 55003-2022</t>
+          <t>A 6734-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44886.51076388889</v>
+        <v>44602.46284722222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4161,7 +4146,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.6</v>
+        <v>32.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4198,14 +4183,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59609-2021</t>
+          <t>A 30634-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44491.69118055556</v>
+        <v>45112.45543981482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4218,7 +4203,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>12.7</v>
+        <v>6.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4255,14 +4240,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 5952-2024</t>
+          <t>A 52795-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45335</v>
+        <v>45226.35605324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4275,7 +4260,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4312,14 +4297,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20197-2023</t>
+          <t>A 2850-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45055</v>
+        <v>46038.47877314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4332,7 +4317,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4369,14 +4354,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40607-2024</t>
+          <t>A 2800-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45556.70357638889</v>
+        <v>46038</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4389,7 +4374,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4426,14 +4411,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59805-2024</t>
+          <t>A 61260-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45639.60199074074</v>
+        <v>46000</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4446,7 +4431,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4483,14 +4468,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8193-2023</t>
+          <t>A 16735-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44974</v>
+        <v>45030.71976851852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,13 +4487,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>10.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4545,14 +4525,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8228-2023</t>
+          <t>A 19082-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44974</v>
+        <v>45048</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,8 +4544,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>13.9</v>
+        <v>6.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4602,14 +4587,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51096-2024</t>
+          <t>A 38938-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45603.47366898148</v>
+        <v>44411.63415509259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,8 +4606,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4659,14 +4649,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47123-2024</t>
+          <t>A 26029-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45586.5691087963</v>
+        <v>44734</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,8 +4668,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>5.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4716,14 +4711,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38308-2023</t>
+          <t>A 59612-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45161.66641203704</v>
+        <v>44491</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4736,7 +4731,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4773,14 +4768,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50058-2021</t>
+          <t>A 52802-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44456.54690972222</v>
+        <v>44875</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4793,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4835,14 +4830,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26029-2022</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44734</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4854,13 +4849,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4897,14 +4887,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31883-2022</t>
+          <t>A 39269-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44777</v>
+        <v>45166.49605324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4917,7 +4907,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4954,14 +4944,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44720-2021</t>
+          <t>A 59609-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44438</v>
+        <v>44491.69118055556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4974,7 +4964,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>11.4</v>
+        <v>12.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5011,14 +5001,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52789-2024</t>
+          <t>A 19266-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45610.55425925926</v>
+        <v>45428.62668981482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5031,7 +5021,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5068,14 +5058,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 60736-2024</t>
+          <t>A 52809-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45644</v>
+        <v>44875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5087,8 +5077,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5125,14 +5120,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24023-2025</t>
+          <t>A 3683-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45796</v>
+        <v>44950</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5144,8 +5139,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19420-2024</t>
+          <t>A 1906-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45429.42680555556</v>
+        <v>44575.39444444444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60754-2024</t>
+          <t>A 36539-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45644</v>
+        <v>44391.4878587963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,14 +866,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 31706-2025</t>
+          <t>A 59332-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45834</v>
+        <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,22 +885,17 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -915,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -925,125 +920,130 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Ekticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 59332-2022 artfynd.xlsx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 59332-2022 karta.png", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 59332-2022 FSC-klagomål.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 59332-2022 FSC-klagomål mail.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 59332-2022 tillsynsbegäran.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 59332-2022 tillsynsbegäran mail.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 31706-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGSÖR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Blomkålssvamp
 Trana</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 59332-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44904</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGSÖR</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ekticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 59332-2022 artfynd.xlsx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 59332-2022 karta.png", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 59332-2022 FSC-klagomål.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 59332-2022 FSC-klagomål mail.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 59332-2022 tillsynsbegäran.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 59332-2022 tillsynsbegäran mail.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,14 +1484,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 72700-2021</t>
+          <t>A 6319-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44545</v>
+        <v>44600</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1541,14 +1541,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 15832-2021</t>
+          <t>A 72700-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44286</v>
+        <v>44545</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1598,14 +1598,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 6319-2022</t>
+          <t>A 15832-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44600</v>
+        <v>44286</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>44620</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 61262-2024</t>
+          <t>A 36539-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45645</v>
+        <v>44391.4878587963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1883,14 +1883,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61264-2024</t>
+          <t>A 38938-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45645</v>
+        <v>44411.63415509259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1902,8 +1902,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1940,14 +1945,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41446-2023</t>
+          <t>A 19082-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45175</v>
+        <v>45048</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1970,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2002,14 +2007,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30621-2023</t>
+          <t>A 36638-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45112.42612268519</v>
+        <v>44392</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2027,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2059,14 +2064,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 30623-2023</t>
+          <t>A 19917-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45112.4308912037</v>
+        <v>45771</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2079,7 +2084,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2116,14 +2121,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59853-2022</t>
+          <t>A 52802-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44908</v>
+        <v>44875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2135,8 +2140,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2173,14 +2183,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8193-2023</t>
+          <t>A 11771-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44974</v>
+        <v>45727</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2192,13 +2202,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>10.5</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2235,14 +2240,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 8228-2023</t>
+          <t>A 6734-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44974</v>
+        <v>44602.46284722222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2260,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>13.9</v>
+        <v>32.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2292,14 +2297,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 52809-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>44875</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2311,8 +2316,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2349,14 +2359,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31883-2022</t>
+          <t>A 30621-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44777</v>
+        <v>45112.42612268519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2379,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2406,14 +2416,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 36638-2021</t>
+          <t>A 30623-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44392</v>
+        <v>45112.4308912037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2436,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2463,14 +2473,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 51096-2024</t>
+          <t>A 40815-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45603.47366898148</v>
+        <v>44824</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2493,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>15.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2520,14 +2530,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 23574-2023</t>
+          <t>A 59853-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45077</v>
+        <v>44908</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2550,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2577,14 +2587,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 20197-2023</t>
+          <t>A 55072-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45055</v>
+        <v>44474.64513888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2607,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2634,14 +2644,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 26382-2023</t>
+          <t>A 55079-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45092</v>
+        <v>44474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2653,13 +2663,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>20.3</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2696,14 +2701,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 40607-2024</t>
+          <t>A 16735-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45556.70357638889</v>
+        <v>45030.71976851852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2716,7 +2721,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2753,14 +2758,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 11771-2025</t>
+          <t>A 1906-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45727</v>
+        <v>44575.39444444444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2778,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2810,14 +2815,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 44720-2021</t>
+          <t>A 52795-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44438</v>
+        <v>45226.35605324074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2835,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>11.4</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2867,14 +2872,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5952-2024</t>
+          <t>A 3683-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45335</v>
+        <v>44950</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,8 +2891,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2924,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60736-2024</t>
+          <t>A 39269-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45644</v>
+        <v>45166.49605324074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2981,14 +2991,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 52789-2024</t>
+          <t>A 59612-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45610.55425925926</v>
+        <v>44491</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3011,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3038,14 +3048,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19420-2024</t>
+          <t>A 23574-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45429.42680555556</v>
+        <v>45077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3058,7 +3068,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3095,14 +3105,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60754-2024</t>
+          <t>A 1040-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45644</v>
+        <v>45666.54564814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3115,7 +3125,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3152,14 +3162,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24023-2025</t>
+          <t>A 41446-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45796</v>
+        <v>45175</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3171,8 +3181,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>8.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3209,14 +3224,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 59805-2024</t>
+          <t>A 19266-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45639.60199074074</v>
+        <v>45428.62668981482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3229,7 +3244,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3266,14 +3281,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 1040-2025</t>
+          <t>A 30634-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45666.54564814815</v>
+        <v>45112.45543981482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3286,7 +3301,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3323,14 +3338,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 39717-2023</t>
+          <t>A 33035-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45167.62804398148</v>
+        <v>45840</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3343,7 +3358,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3380,14 +3395,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38308-2023</t>
+          <t>A 33022-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45161.66641203704</v>
+        <v>45840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3400,7 +3415,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3437,14 +3452,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 55003-2022</t>
+          <t>A 33034-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44886.51076388889</v>
+        <v>45840</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3457,7 +3472,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.6</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3494,14 +3509,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 47123-2024</t>
+          <t>A 26382-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45586.5691087963</v>
+        <v>45092</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3513,8 +3528,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>5.3</v>
+        <v>20.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3551,14 +3571,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 33022-2025</t>
+          <t>A 40607-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45840</v>
+        <v>45556.70357638889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3571,7 +3591,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3608,14 +3628,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33034-2025</t>
+          <t>A 10516-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45840</v>
+        <v>44623.71763888889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3628,7 +3648,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3665,14 +3685,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40815-2022</t>
+          <t>A 10517-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44824</v>
+        <v>44623</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3685,7 +3705,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>15.9</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3722,14 +3742,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 33035-2025</t>
+          <t>A 39717-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45840</v>
+        <v>45167.62804398148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3742,7 +3762,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3779,14 +3799,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 55072-2021</t>
+          <t>A 59805-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44474.64513888889</v>
+        <v>45639.60199074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3799,7 +3819,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3836,14 +3856,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 55079-2021</t>
+          <t>A 61262-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44474</v>
+        <v>45645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3876,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3893,14 +3913,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 10516-2022</t>
+          <t>A 61264-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44623.71763888889</v>
+        <v>45645</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3933,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3950,14 +3970,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 10517-2022</t>
+          <t>A 8193-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44623</v>
+        <v>44974</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3969,8 +3989,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>10.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4007,14 +4032,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 50058-2021</t>
+          <t>A 8228-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44456.54690972222</v>
+        <v>44974</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4026,13 +4051,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>13.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4069,14 +4089,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19917-2025</t>
+          <t>A 51096-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45771</v>
+        <v>45603.47366898148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4089,7 +4109,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4126,14 +4146,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6734-2022</t>
+          <t>A 55003-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44602.46284722222</v>
+        <v>44886.51076388889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4146,7 +4166,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>32.3</v>
+        <v>6.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4183,14 +4203,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30634-2023</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45112.45543981482</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4203,7 +4223,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4240,14 +4260,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52795-2023</t>
+          <t>A 47123-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45226.35605324074</v>
+        <v>45586.5691087963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4260,7 +4280,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4297,14 +4317,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2850-2026</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46038.47877314815</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4317,7 +4337,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4354,14 +4374,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2800-2026</t>
+          <t>A 38308-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46038</v>
+        <v>45161.66641203704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4374,7 +4394,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4411,14 +4431,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61260-2025</t>
+          <t>A 59609-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46000</v>
+        <v>44491.69118055556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4431,7 +4451,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.4</v>
+        <v>12.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4468,14 +4488,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16735-2023</t>
+          <t>A 5952-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45030.71976851852</v>
+        <v>45335</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4488,7 +4508,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4525,14 +4545,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19082-2023</t>
+          <t>A 50058-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45048</v>
+        <v>44456.54690972222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4550,7 +4570,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4587,14 +4607,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38938-2021</t>
+          <t>A 20197-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44411.63415509259</v>
+        <v>45055</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4606,13 +4626,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4656,7 +4671,7 @@
         <v>44734</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4711,14 +4726,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59612-2021</t>
+          <t>A 31883-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44491</v>
+        <v>44777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4731,7 +4746,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4768,14 +4783,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52802-2022</t>
+          <t>A 44720-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44875</v>
+        <v>44438</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4787,13 +4802,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5.8</v>
+        <v>11.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4830,14 +4840,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 52789-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>45610.55425925926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4850,7 +4860,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4887,14 +4897,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39269-2023</t>
+          <t>A 60736-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45166.49605324074</v>
+        <v>45644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4907,7 +4917,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4944,14 +4954,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59609-2021</t>
+          <t>A 24023-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44491.69118055556</v>
+        <v>45796</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4964,7 +4974,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>12.7</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5001,14 +5011,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19266-2024</t>
+          <t>A 19420-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45428.62668981482</v>
+        <v>45429.42680555556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5058,14 +5068,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52809-2022</t>
+          <t>A 60754-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44875</v>
+        <v>45644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,13 +5087,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5120,14 +5125,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3683-2023</t>
+          <t>A 2850-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44950</v>
+        <v>46038.47877314815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5139,13 +5144,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 1906-2022</t>
+          <t>A 2800-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44575.39444444444</v>
+        <v>46038</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 36539-2021</t>
+          <t>A 61260-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44391.4878587963</v>
+        <v>46000</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,14 +866,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 59332-2022</t>
+          <t>A 31706-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44904</v>
+        <v>45834</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,17 +885,22 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -910,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -920,130 +925,125 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Blomkålssvamp
+Trana</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 59332-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44904</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGSÖR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Ekticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 59332-2022 artfynd.xlsx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 59332-2022 karta.png", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 59332-2022 FSC-klagomål.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 59332-2022 FSC-klagomål mail.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 59332-2022 tillsynsbegäran.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 59332-2022 tillsynsbegäran mail.docx", "A 59332-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31706-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45834</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGSÖR</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp
-Trana</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,14 +1484,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 6319-2022</t>
+          <t>A 15832-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44600</v>
+        <v>44286</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>44545</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,14 +1598,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 15832-2021</t>
+          <t>A 6319-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44286</v>
+        <v>44600</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>44620</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 36539-2021</t>
+          <t>A 41446-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44391.4878587963</v>
+        <v>45175</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1845,8 +1845,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>8.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1883,14 +1888,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 38938-2021</t>
+          <t>A 30621-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44411.63415509259</v>
+        <v>45112.42612268519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1902,13 +1907,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1945,14 +1945,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 19082-2023</t>
+          <t>A 30623-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45048</v>
+        <v>45112.4308912037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1964,13 +1964,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2007,14 +2002,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 36638-2021</t>
+          <t>A 61262-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44392</v>
+        <v>45645</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2022,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2064,14 +2059,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 19917-2025</t>
+          <t>A 61264-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45771</v>
+        <v>45645</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2079,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2121,14 +2116,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52802-2022</t>
+          <t>A 51096-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44875</v>
+        <v>45603.47366898148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2140,13 +2135,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2183,14 +2173,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 11771-2025</t>
+          <t>A 36638-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45727</v>
+        <v>44392</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2203,7 +2193,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2240,14 +2230,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 6734-2022</t>
+          <t>A 20197-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44602.46284722222</v>
+        <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2260,7 +2250,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>32.3</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2297,14 +2287,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52809-2022</t>
+          <t>A 40607-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44875</v>
+        <v>45556.70357638889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2316,13 +2306,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2359,14 +2344,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 30621-2023</t>
+          <t>A 44720-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45112.42612268519</v>
+        <v>44438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2379,7 +2364,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>11.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2416,14 +2401,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30623-2023</t>
+          <t>A 19420-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45112.4308912037</v>
+        <v>45429.42680555556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2436,7 +2421,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2473,14 +2458,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 40815-2022</t>
+          <t>A 60754-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44824</v>
+        <v>45644</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2493,7 +2478,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>15.9</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2530,14 +2515,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 59853-2022</t>
+          <t>A 11771-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44908</v>
+        <v>45727</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2550,7 +2535,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2587,14 +2572,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55072-2021</t>
+          <t>A 5952-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44474.64513888889</v>
+        <v>45335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2592,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2644,14 +2629,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55079-2021</t>
+          <t>A 24023-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44474</v>
+        <v>45796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2649,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2701,14 +2686,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16735-2023</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45030.71976851852</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2721,7 +2706,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2758,14 +2743,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1906-2022</t>
+          <t>A 1040-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44575.39444444444</v>
+        <v>45666.54564814815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2778,7 +2763,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2815,14 +2800,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 52795-2023</t>
+          <t>A 59805-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45226.35605324074</v>
+        <v>45639.60199074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2835,7 +2820,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2872,14 +2857,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 3683-2023</t>
+          <t>A 33022-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44950</v>
+        <v>45840</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2891,13 +2876,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2914,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 39269-2023</t>
+          <t>A 33034-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45166.49605324074</v>
+        <v>45840</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2934,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2991,14 +2971,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 59612-2021</t>
+          <t>A 33035-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44491</v>
+        <v>45840</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3048,14 +3028,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23574-2023</t>
+          <t>A 39717-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45077</v>
+        <v>45167.62804398148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3068,7 +3048,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3105,14 +3085,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 1040-2025</t>
+          <t>A 38308-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45666.54564814815</v>
+        <v>45161.66641203704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3105,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3162,14 +3142,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41446-2023</t>
+          <t>A 55003-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45175</v>
+        <v>44886.51076388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,13 +3161,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3224,14 +3199,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19266-2024</t>
+          <t>A 47123-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45428.62668981482</v>
+        <v>45586.5691087963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3244,7 +3219,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3281,14 +3256,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 30634-2023</t>
+          <t>A 40815-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45112.45543981482</v>
+        <v>44824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3301,7 +3276,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.2</v>
+        <v>15.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3338,14 +3313,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33035-2025</t>
+          <t>A 55072-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45840</v>
+        <v>44474.64513888889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3358,7 +3333,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3395,14 +3370,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 33022-2025</t>
+          <t>A 55079-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45840</v>
+        <v>44474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3415,7 +3390,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3452,14 +3427,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 33034-2025</t>
+          <t>A 10516-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45840</v>
+        <v>44623.71763888889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3472,7 +3447,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3509,14 +3484,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26382-2023</t>
+          <t>A 10517-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45092</v>
+        <v>44623</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3528,13 +3503,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>20.3</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3571,14 +3541,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40607-2024</t>
+          <t>A 50058-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45556.70357638889</v>
+        <v>44456.54690972222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,8 +3560,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3628,14 +3603,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 10516-2022</t>
+          <t>A 19917-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44623.71763888889</v>
+        <v>45771</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3648,7 +3623,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3685,14 +3660,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10517-2022</t>
+          <t>A 6734-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44623</v>
+        <v>44602.46284722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3705,7 +3680,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>32.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3742,14 +3717,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39717-2023</t>
+          <t>A 30634-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45167.62804398148</v>
+        <v>45112.45543981482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3762,7 +3737,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3799,14 +3774,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59805-2024</t>
+          <t>A 52795-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45639.60199074074</v>
+        <v>45226.35605324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3819,7 +3794,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3856,14 +3831,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 61262-2024</t>
+          <t>A 16735-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45645</v>
+        <v>45030.71976851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3876,7 +3851,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3913,14 +3888,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61264-2024</t>
+          <t>A 19082-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45645</v>
+        <v>45048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,8 +3907,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3970,14 +3950,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8193-2023</t>
+          <t>A 38938-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44974</v>
+        <v>44411.63415509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3975,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>10.5</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4032,14 +4012,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8228-2023</t>
+          <t>A 2850-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44974</v>
+        <v>46038.47877314815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4032,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>13.9</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4089,14 +4069,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 51096-2024</t>
+          <t>A 2800-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45603.47366898148</v>
+        <v>46038</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4089,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4146,14 +4126,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 55003-2022</t>
+          <t>A 26029-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44886.51076388889</v>
+        <v>44734</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,8 +4145,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>6.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4203,14 +4188,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 59612-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>44491</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4208,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4260,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47123-2024</t>
+          <t>A 61260-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45586.5691087963</v>
+        <v>46000</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4317,14 +4302,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 52802-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>44875</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,8 +4321,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4374,14 +4364,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38308-2023</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45161.66641203704</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4384,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4431,14 +4421,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59609-2021</t>
+          <t>A 39269-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44491.69118055556</v>
+        <v>45166.49605324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4451,7 +4441,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>12.7</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4488,14 +4478,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 5952-2024</t>
+          <t>A 59609-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45335</v>
+        <v>44491.69118055556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4508,7 +4498,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>12.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4545,14 +4535,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50058-2021</t>
+          <t>A 19266-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44456.54690972222</v>
+        <v>45428.62668981482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,13 +4554,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4607,14 +4592,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20197-2023</t>
+          <t>A 52809-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45055</v>
+        <v>44875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4626,8 +4611,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4664,14 +4654,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26029-2022</t>
+          <t>A 3683-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44734</v>
+        <v>44950</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4689,7 +4679,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>9.699999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4726,14 +4716,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 31883-2022</t>
+          <t>A 1906-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44777</v>
+        <v>44575.39444444444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4746,7 +4736,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4783,14 +4773,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44720-2021</t>
+          <t>A 36539-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44438</v>
+        <v>44391.4878587963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4803,7 +4793,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>11.4</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4840,14 +4830,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52789-2024</t>
+          <t>A 59853-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45610.55425925926</v>
+        <v>44908</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4860,7 +4850,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4897,14 +4887,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60736-2024</t>
+          <t>A 8193-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45644</v>
+        <v>44974</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4916,8 +4906,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4954,14 +4949,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24023-2025</t>
+          <t>A 8228-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45796</v>
+        <v>44974</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4974,7 +4969,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>13.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5011,14 +5006,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19420-2024</t>
+          <t>A 31883-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45429.42680555556</v>
+        <v>44777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5031,7 +5026,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5068,14 +5063,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 60754-2024</t>
+          <t>A 23574-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45644</v>
+        <v>45077</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5088,7 +5083,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5125,14 +5120,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2850-2026</t>
+          <t>A 26382-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46038.47877314815</v>
+        <v>45092</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5144,8 +5139,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>20.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2800-2026</t>
+          <t>A 60736-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46038</v>
+        <v>45644</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61260-2025</t>
+          <t>A 52789-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46000</v>
+        <v>45610.55425925926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45834</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44904</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,14 +1484,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 15832-2021</t>
+          <t>A 72700-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44286</v>
+        <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1541,14 +1541,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 72700-2021</t>
+          <t>A 15832-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44545</v>
+        <v>44286</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>44600</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44620</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 41446-2023</t>
+          <t>A 61262-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45175</v>
+        <v>45645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1845,13 +1845,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>8.4</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1888,14 +1883,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 30621-2023</t>
+          <t>A 61264-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45112.42612268519</v>
+        <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1903,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1945,14 +1940,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 30623-2023</t>
+          <t>A 41446-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45112.4308912037</v>
+        <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1964,8 +1959,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>8.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 61262-2024</t>
+          <t>A 36638-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45645</v>
+        <v>44392</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 61264-2024</t>
+          <t>A 51096-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45645</v>
+        <v>45603.47366898148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 51096-2024</t>
+          <t>A 20197-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45603.47366898148</v>
+        <v>45055</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 36638-2021</t>
+          <t>A 30621-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44392</v>
+        <v>45112.42612268519</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20197-2023</t>
+          <t>A 30623-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45055</v>
+        <v>45112.4308912037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>45556.70357638889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,14 +2344,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44720-2021</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44438</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>11.4</v>
+        <v>6.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 19420-2024</t>
+          <t>A 11771-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45429.42680555556</v>
+        <v>45727</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 60754-2024</t>
+          <t>A 19420-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45644</v>
+        <v>45429.42680555556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11771-2025</t>
+          <t>A 60754-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45727</v>
+        <v>45644</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2572,14 +2572,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 5952-2024</t>
+          <t>A 44720-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45335</v>
+        <v>44438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>11.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>45796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,14 +2686,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 5952-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>45335</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>45666.54564814815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>45639.60199074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>45840</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45840</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>45840</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>45167.62804398148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45161.66641203704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44886.51076388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>45586.5691087963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>44474.64513888889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>44623.71763888889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44623</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44456.54690972222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45771</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3660,14 +3660,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 6734-2022</t>
+          <t>A 2850-2026</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44602.46284722222</v>
+        <v>46038.47877314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>32.3</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3717,14 +3717,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30634-2023</t>
+          <t>A 2800-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45112.45543981482</v>
+        <v>46038</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3774,14 +3774,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 52795-2023</t>
+          <t>A 6734-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45226.35605324074</v>
+        <v>44602.46284722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.7</v>
+        <v>32.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3831,14 +3831,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16735-2023</t>
+          <t>A 61260-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45030.71976851852</v>
+        <v>46000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>8.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3888,14 +3888,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 19082-2023</t>
+          <t>A 30634-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45048</v>
+        <v>45112.45543981482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3907,13 +3907,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3950,14 +3945,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38938-2021</t>
+          <t>A 52795-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44411.63415509259</v>
+        <v>45226.35605324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3969,13 +3964,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4012,14 +4002,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2850-2026</t>
+          <t>A 16735-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46038.47877314815</v>
+        <v>45030.71976851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4032,7 +4022,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4069,14 +4059,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2800-2026</t>
+          <t>A 19082-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46038</v>
+        <v>45048</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4088,8 +4078,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4126,14 +4121,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26029-2022</t>
+          <t>A 38938-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44734</v>
+        <v>44411.63415509259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4151,7 +4146,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>9.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4188,14 +4183,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59612-2021</t>
+          <t>A 26029-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44491</v>
+        <v>44734</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4207,8 +4202,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61260-2025</t>
+          <t>A 59612-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46000</v>
+        <v>44491</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>44875</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44491.70662037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>45166.49605324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44491.69118055556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>45428.62668981482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44950</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44575.39444444444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44391.4878587963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44908</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44974</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44974</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>45077</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>45092</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45644</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>45610.55425925926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45834</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44904</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44286</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44600</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44620</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>45645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,14 +2002,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 36638-2021</t>
+          <t>A 30621-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44392</v>
+        <v>45112.42612268519</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 51096-2024</t>
+          <t>A 30623-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45603.47366898148</v>
+        <v>45112.4308912037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 20197-2023</t>
+          <t>A 36638-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45055</v>
+        <v>44392</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 30621-2023</t>
+          <t>A 51096-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45112.42612268519</v>
+        <v>45603.47366898148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 30623-2023</t>
+          <t>A 60736-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45112.4308912037</v>
+        <v>45644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 40607-2024</t>
+          <t>A 52789-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45556.70357638889</v>
+        <v>45610.55425925926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 20197-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>45055</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 11771-2025</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45727</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>45429.42680555556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45644</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,14 +2572,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 44720-2021</t>
+          <t>A 40607-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44438</v>
+        <v>45556.70357638889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>11.4</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>45796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,14 +2686,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 5952-2024</t>
+          <t>A 11771-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45335</v>
+        <v>45727</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2743,14 +2743,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1040-2025</t>
+          <t>A 44720-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45666.54564814815</v>
+        <v>44438</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>11.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 59805-2024</t>
+          <t>A 5952-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45639.60199074074</v>
+        <v>45335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33022-2025</t>
+          <t>A 1040-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45840</v>
+        <v>45666.54564814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 33034-2025</t>
+          <t>A 59805-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45840</v>
+        <v>45639.60199074074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33035-2025</t>
+          <t>A 33022-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>45840</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 39717-2023</t>
+          <t>A 33034-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45167.62804398148</v>
+        <v>45840</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38308-2023</t>
+          <t>A 33035-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45161.66641203704</v>
+        <v>45840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 55003-2022</t>
+          <t>A 39717-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44886.51076388889</v>
+        <v>45167.62804398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 47123-2024</t>
+          <t>A 38308-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45586.5691087963</v>
+        <v>45161.66641203704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40815-2022</t>
+          <t>A 55003-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44824</v>
+        <v>44886.51076388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>15.9</v>
+        <v>6.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 55072-2021</t>
+          <t>A 47123-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44474.64513888889</v>
+        <v>45586.5691087963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 55079-2021</t>
+          <t>A 40815-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44474</v>
+        <v>44824</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>15.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10516-2022</t>
+          <t>A 55072-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44623.71763888889</v>
+        <v>44474.64513888889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3484,14 +3484,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10517-2022</t>
+          <t>A 55079-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44623</v>
+        <v>44474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 50058-2021</t>
+          <t>A 10516-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44456.54690972222</v>
+        <v>44623.71763888889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3560,13 +3560,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3603,14 +3598,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19917-2025</t>
+          <t>A 10517-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45771</v>
+        <v>44623</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3618,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3660,14 +3655,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2850-2026</t>
+          <t>A 50058-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46038.47877314815</v>
+        <v>44456.54690972222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3679,8 +3674,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3717,14 +3717,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2800-2026</t>
+          <t>A 19917-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46038</v>
+        <v>45771</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3774,14 +3774,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6734-2022</t>
+          <t>A 2850-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44602.46284722222</v>
+        <v>46038.47877314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>32.3</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3831,14 +3831,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 61260-2025</t>
+          <t>A 2800-2026</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46000</v>
+        <v>46038</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3888,14 +3888,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30634-2023</t>
+          <t>A 61260-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45112.45543981482</v>
+        <v>46000</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3945,14 +3945,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 52795-2023</t>
+          <t>A 6734-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45226.35605324074</v>
+        <v>44602.46284722222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>32.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4002,14 +4002,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16735-2023</t>
+          <t>A 30634-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45030.71976851852</v>
+        <v>45112.45543981482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4059,14 +4059,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19082-2023</t>
+          <t>A 52795-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45048</v>
+        <v>45226.35605324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4078,13 +4078,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4121,14 +4116,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38938-2021</t>
+          <t>A 16735-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44411.63415509259</v>
+        <v>45030.71976851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4140,13 +4135,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4183,14 +4173,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 26029-2022</t>
+          <t>A 19082-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44734</v>
+        <v>45048</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4208,7 +4198,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>9.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4235,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59612-2021</t>
+          <t>A 38938-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44491</v>
+        <v>44411.63415509259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4264,8 +4254,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4302,14 +4297,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52802-2022</t>
+          <t>A 26029-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44875</v>
+        <v>44734</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4322,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4364,14 +4359,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 59612-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>44491</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4379,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4421,14 +4416,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39269-2023</t>
+          <t>A 52802-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45166.49605324074</v>
+        <v>44875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4440,8 +4435,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>5.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4478,14 +4478,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59609-2021</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44491.69118055556</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>12.7</v>
+        <v>6.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4535,14 +4535,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19266-2024</t>
+          <t>A 39269-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45428.62668981482</v>
+        <v>45166.49605324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4592,14 +4592,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52809-2022</t>
+          <t>A 59609-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44875</v>
+        <v>44491.69118055556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4611,13 +4611,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>12.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4654,14 +4649,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3683-2023</t>
+          <t>A 19266-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44950</v>
+        <v>45428.62668981482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4673,13 +4668,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4716,14 +4706,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1906-2022</t>
+          <t>A 52809-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44575.39444444444</v>
+        <v>44875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,8 +4725,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4773,14 +4768,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 36539-2021</t>
+          <t>A 3683-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44391.4878587963</v>
+        <v>44950</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,8 +4787,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4830,14 +4830,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59853-2022</t>
+          <t>A 1906-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44908</v>
+        <v>44575.39444444444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4887,14 +4887,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8193-2023</t>
+          <t>A 36539-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44974</v>
+        <v>44391.4878587963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,13 +4906,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>10.5</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4949,14 +4944,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8228-2023</t>
+          <t>A 59853-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44974</v>
+        <v>44908</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4964,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>13.9</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5006,14 +5001,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 31883-2022</t>
+          <t>A 8193-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44777</v>
+        <v>44974</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5025,8 +5020,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5063,14 +5063,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23574-2023</t>
+          <t>A 8228-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45077</v>
+        <v>44974</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>13.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5120,14 +5120,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26382-2023</t>
+          <t>A 31883-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45092</v>
+        <v>44777</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5139,13 +5139,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>20.3</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5182,14 +5177,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 60736-2024</t>
+          <t>A 23574-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45644</v>
+        <v>45077</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5202,7 +5197,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5239,14 +5234,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52789-2024</t>
+          <t>A 26382-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45610.55425925926</v>
+        <v>45092</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5258,8 +5253,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>20.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,14 +866,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 31706-2025</t>
+          <t>A 59332-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45834</v>
+        <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,22 +885,17 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -915,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -925,125 +920,130 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Ekticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 59332-2022 artfynd.xlsx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 59332-2022 karta.png", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 59332-2022 FSC-klagomål.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 59332-2022 FSC-klagomål mail.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 59332-2022 tillsynsbegäran.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 59332-2022 tillsynsbegäran mail.docx", "A 59332-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 31706-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGSÖR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Blomkålssvamp
 Trana</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 59332-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44904</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGSÖR</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ekticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 59332-2022 artfynd.xlsx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 59332-2022 karta.png", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 59332-2022 FSC-klagomål.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 59332-2022 FSC-klagomål mail.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 59332-2022 tillsynsbegäran.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 59332-2022 tillsynsbegäran mail.docx", "A 59332-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44286</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44600</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44620</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44439</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 61262-2024</t>
+          <t>A 19082-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45645</v>
+        <v>45048</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1845,8 +1845,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1883,14 +1888,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61264-2024</t>
+          <t>A 19917-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45645</v>
+        <v>45771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1903,7 +1908,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1940,14 +1945,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41446-2023</t>
+          <t>A 44720-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45175</v>
+        <v>44438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1959,13 +1964,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>8.4</v>
+        <v>11.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30621-2023</t>
+          <t>A 40815-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45112.42612268519</v>
+        <v>44824</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>15.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 30623-2023</t>
+          <t>A 52789-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45112.4308912037</v>
+        <v>45610.55425925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 36638-2021</t>
+          <t>A 55072-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44392</v>
+        <v>44474.64513888889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 51096-2024</t>
+          <t>A 55079-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45603.47366898148</v>
+        <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2237,7 +2237,7 @@
         <v>45644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,14 +2287,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52789-2024</t>
+          <t>A 52795-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45610.55425925926</v>
+        <v>45226.35605324074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 20197-2023</t>
+          <t>A 24023-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45055</v>
+        <v>45796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 19420-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>45429.42680555556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19420-2024</t>
+          <t>A 60754-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45429.42680555556</v>
+        <v>45644</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60754-2024</t>
+          <t>A 38938-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45644</v>
+        <v>44411.63415509259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2534,8 +2534,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2572,14 +2577,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 40607-2024</t>
+          <t>A 52802-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45556.70357638889</v>
+        <v>44875</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2591,8 +2596,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2629,14 +2639,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 24023-2025</t>
+          <t>A 6734-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45796</v>
+        <v>44602.46284722222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2659,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>32.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2686,14 +2696,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 11771-2025</t>
+          <t>A 30621-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45727</v>
+        <v>45112.42612268519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2706,7 +2716,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2743,14 +2753,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 44720-2021</t>
+          <t>A 30623-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44438</v>
+        <v>45112.4308912037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2763,7 +2773,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>11.4</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2800,14 +2810,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5952-2024</t>
+          <t>A 59853-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45335</v>
+        <v>44908</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2820,7 +2830,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2864,7 +2874,7 @@
         <v>45666.54564814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,14 +2924,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 59805-2024</t>
+          <t>A 3683-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45639.60199074074</v>
+        <v>44950</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2933,8 +2943,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2971,14 +2986,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33022-2025</t>
+          <t>A 33035-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>45840</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2991,7 +3006,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3028,14 +3043,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33034-2025</t>
+          <t>A 33022-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>45840</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3048,7 +3063,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3085,14 +3100,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 33035-2025</t>
+          <t>A 33034-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>45840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3105,7 +3120,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3142,14 +3157,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 39717-2023</t>
+          <t>A 23574-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45167.62804398148</v>
+        <v>45077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3162,7 +3177,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3199,14 +3214,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38308-2023</t>
+          <t>A 41446-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45161.66641203704</v>
+        <v>45175</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3218,8 +3233,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>8.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3256,14 +3276,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 55003-2022</t>
+          <t>A 2850-2026</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44886.51076388889</v>
+        <v>46038.47877314815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3276,7 +3296,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.6</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3313,14 +3333,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47123-2024</t>
+          <t>A 30634-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45586.5691087963</v>
+        <v>45112.45543981482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3333,7 +3353,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3370,14 +3390,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40815-2022</t>
+          <t>A 2800-2026</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44824</v>
+        <v>46038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3390,7 +3410,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>15.9</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3427,14 +3447,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 55072-2021</t>
+          <t>A 26382-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44474.64513888889</v>
+        <v>45092</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3446,8 +3466,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>20.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3484,14 +3509,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 55079-2021</t>
+          <t>A 61260-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44474</v>
+        <v>46000</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3504,7 +3529,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3541,14 +3566,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10516-2022</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44623.71763888889</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3561,7 +3586,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>6.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3598,14 +3623,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 10517-2022</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44623</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3618,7 +3643,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3655,14 +3680,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 50058-2021</t>
+          <t>A 36539-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44456.54690972222</v>
+        <v>44391.4878587963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3674,13 +3699,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3717,14 +3737,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19917-2025</t>
+          <t>A 36638-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45771</v>
+        <v>44392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3757,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3774,14 +3794,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2850-2026</t>
+          <t>A 11771-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46038.47877314815</v>
+        <v>45727</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3814,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3831,14 +3851,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2800-2026</t>
+          <t>A 52809-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46038</v>
+        <v>44875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3850,8 +3870,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3888,14 +3913,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61260-2025</t>
+          <t>A 16735-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46000</v>
+        <v>45030.71976851852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3908,7 +3933,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3945,14 +3970,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6734-2022</t>
+          <t>A 1906-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44602.46284722222</v>
+        <v>44575.39444444444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3965,7 +3990,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>32.3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4002,14 +4027,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30634-2023</t>
+          <t>A 39269-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45112.45543981482</v>
+        <v>45166.49605324074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4022,7 +4047,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4059,14 +4084,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 52795-2023</t>
+          <t>A 59612-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45226.35605324074</v>
+        <v>44491</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4079,7 +4104,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4116,14 +4141,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16735-2023</t>
+          <t>A 19266-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45030.71976851852</v>
+        <v>45428.62668981482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4136,7 +4161,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8.699999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4173,14 +4198,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 19082-2023</t>
+          <t>A 10516-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45048</v>
+        <v>44623.71763888889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4192,13 +4217,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4235,14 +4255,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38938-2021</t>
+          <t>A 10517-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44411.63415509259</v>
+        <v>44623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4254,13 +4274,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4297,14 +4312,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26029-2022</t>
+          <t>A 39717-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44734</v>
+        <v>45167.62804398148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4316,13 +4331,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>9.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4359,14 +4369,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59612-2021</t>
+          <t>A 61262-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44491</v>
+        <v>45645</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4379,7 +4389,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4416,14 +4426,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52802-2022</t>
+          <t>A 61264-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44875</v>
+        <v>45645</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4435,13 +4445,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4478,14 +4483,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 55003-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>44886.51076388889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4503,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4535,14 +4540,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39269-2023</t>
+          <t>A 59609-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45166.49605324074</v>
+        <v>44491.69118055556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4560,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.3</v>
+        <v>12.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4592,14 +4597,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59609-2021</t>
+          <t>A 5952-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44491.69118055556</v>
+        <v>45335</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4617,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>12.7</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4649,14 +4654,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 19266-2024</t>
+          <t>A 20197-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45428.62668981482</v>
+        <v>45055</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4674,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4706,14 +4711,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52809-2022</t>
+          <t>A 40607-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44875</v>
+        <v>45556.70357638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4725,13 +4730,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4768,14 +4768,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3683-2023</t>
+          <t>A 59805-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44950</v>
+        <v>45639.60199074074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4787,13 +4787,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4830,14 +4825,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1906-2022</t>
+          <t>A 8193-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44575.39444444444</v>
+        <v>44974</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,8 +4844,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>10.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4887,14 +4887,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36539-2021</t>
+          <t>A 8228-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44391.4878587963</v>
+        <v>44974</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>13.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4944,14 +4944,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59853-2022</t>
+          <t>A 51096-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44908</v>
+        <v>45603.47366898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5001,14 +5001,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8193-2023</t>
+          <t>A 47123-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44974</v>
+        <v>45586.5691087963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,13 +5020,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5063,14 +5058,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8228-2023</t>
+          <t>A 38308-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44974</v>
+        <v>45161.66641203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5078,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>13.9</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5120,14 +5115,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 31883-2022</t>
+          <t>A 50058-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44777</v>
+        <v>44456.54690972222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5139,8 +5134,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5177,14 +5177,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23574-2023</t>
+          <t>A 26029-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45077</v>
+        <v>44734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5196,8 +5196,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5234,14 +5239,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26382-2023</t>
+          <t>A 31883-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45092</v>
+        <v>44777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5253,13 +5258,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>20.3</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -575,7 +575,7 @@
         <v>45714</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45709</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45349</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,14 +866,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 59332-2022</t>
+          <t>A 31706-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44904</v>
+        <v>45834</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,17 +885,22 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -910,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -920,130 +925,125 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Blomkålssvamp
+Trana</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 59332-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44904</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGSÖR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Ekticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 59332-2022 artfynd.xlsx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 59332-2022 karta.png", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 59332-2022 FSC-klagomål.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 59332-2022 FSC-klagomål mail.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 59332-2022 tillsynsbegäran.docx", "A 59332-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 59332-2022 tillsynsbegäran mail.docx", "A 59332-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31706-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45834</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGSÖR</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp
-Trana</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/artfynd/A 31706-2025 artfynd.xlsx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/kartor/A 31706-2025 karta.png", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomål/A 31706-2025 FSC-klagomål.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/klagomålsmail/A 31706-2025 FSC-klagomål mail.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsyn/A 31706-2025 tillsynsbegäran.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/tillsynsmail/A 31706-2025 tillsynsbegäran mail.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1960/fåglar/A 31706-2025 prioriterade fågelarter.docx", "A 31706-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44880</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44602</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44286.61725694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44286</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44600</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1655,14 +1655,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 9813-2022</t>
+          <t>A 45159-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44620</v>
+        <v>44439</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1712,14 +1712,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 45159-2021</t>
+          <t>A 9813-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44439</v>
+        <v>44620</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.3</v>
+        <v>4.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>44603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 19082-2023</t>
+          <t>A 41446-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45048</v>
+        <v>45175</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1888,14 +1888,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19917-2025</t>
+          <t>A 61262-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45771</v>
+        <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1945,14 +1945,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44720-2021</t>
+          <t>A 61264-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44438</v>
+        <v>45645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>11.4</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2002,14 +2002,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 40815-2022</t>
+          <t>A 30621-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44824</v>
+        <v>45112.42612268519</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>15.9</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 52789-2024</t>
+          <t>A 30623-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45610.55425925926</v>
+        <v>45112.4308912037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2116,14 +2116,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 55072-2021</t>
+          <t>A 51096-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44474.64513888889</v>
+        <v>45603.47366898148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 55079-2021</t>
+          <t>A 36638-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44474</v>
+        <v>44392</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 60736-2024</t>
+          <t>A 20197-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45644</v>
+        <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2287,14 +2287,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52795-2023</t>
+          <t>A 40607-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45226.35605324074</v>
+        <v>45556.70357638889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2344,14 +2344,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 24023-2025</t>
+          <t>A 11771-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45796</v>
+        <v>45727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 19420-2024</t>
+          <t>A 44720-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45429.42680555556</v>
+        <v>44438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>11.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2458,14 +2458,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 60754-2024</t>
+          <t>A 5952-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45644</v>
+        <v>45335</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 38938-2021</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44411.63415509259</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2534,13 +2534,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2577,14 +2572,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52802-2022</t>
+          <t>A 59805-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44875</v>
+        <v>45639.60199074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2596,13 +2591,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2639,14 +2629,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 6734-2022</t>
+          <t>A 1040-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44602.46284722222</v>
+        <v>45666.54564814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2659,7 +2649,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>32.3</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2696,14 +2686,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30621-2023</t>
+          <t>A 39717-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45112.42612268519</v>
+        <v>45167.62804398148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2716,7 +2706,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2753,14 +2743,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30623-2023</t>
+          <t>A 38308-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45112.4308912037</v>
+        <v>45161.66641203704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2763,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2810,14 +2800,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 59853-2022</t>
+          <t>A 33022-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44908</v>
+        <v>45840</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2820,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2867,14 +2857,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 1040-2025</t>
+          <t>A 33034-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45666.54564814815</v>
+        <v>45840</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2877,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2924,14 +2914,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3683-2023</t>
+          <t>A 33035-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44950</v>
+        <v>45840</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,13 +2933,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>6.3</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2986,14 +2971,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33035-2025</t>
+          <t>A 55003-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45840</v>
+        <v>44886.51076388889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3006,7 +2991,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3043,14 +3028,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33022-2025</t>
+          <t>A 47123-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45840</v>
+        <v>45586.5691087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3048,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3100,14 +3085,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 33034-2025</t>
+          <t>A 40815-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45840</v>
+        <v>44824</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3105,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>15.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3157,14 +3142,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 23574-2023</t>
+          <t>A 55072-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45077</v>
+        <v>44474.64513888889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3162,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3214,14 +3199,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41446-2023</t>
+          <t>A 55079-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45175</v>
+        <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3233,13 +3218,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3276,14 +3256,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2850-2026</t>
+          <t>A 10516-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46038.47877314815</v>
+        <v>44623.71763888889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3276,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3333,14 +3313,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30634-2023</t>
+          <t>A 10517-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45112.45543981482</v>
+        <v>44623</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3333,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.2</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3390,14 +3370,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2800-2026</t>
+          <t>A 50058-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46038</v>
+        <v>44456.54690972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,8 +3389,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3447,14 +3432,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 26382-2023</t>
+          <t>A 19917-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45092</v>
+        <v>45771</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,13 +3451,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>20.3</v>
+        <v>4.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3509,14 +3489,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 61260-2025</t>
+          <t>A 6734-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46000</v>
+        <v>44602.46284722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3529,7 +3509,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.4</v>
+        <v>32.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3566,14 +3546,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 30634-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>45112.45543981482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3586,7 +3566,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3623,14 +3603,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59615-2021</t>
+          <t>A 52795-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44491.70662037037</v>
+        <v>45226.35605324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3643,7 +3623,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3680,14 +3660,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36539-2021</t>
+          <t>A 2850-2026</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44391.4878587963</v>
+        <v>46038.47877314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3700,7 +3680,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3737,14 +3717,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 36638-2021</t>
+          <t>A 2800-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44392</v>
+        <v>46038</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3757,7 +3737,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3794,14 +3774,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11771-2025</t>
+          <t>A 61260-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45727</v>
+        <v>46000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3814,7 +3794,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3851,14 +3831,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 52809-2022</t>
+          <t>A 16735-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44875</v>
+        <v>45030.71976851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3870,13 +3850,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3913,14 +3888,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16735-2023</t>
+          <t>A 19082-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45030.71976851852</v>
+        <v>45048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,8 +3907,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>8.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3970,14 +3950,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 1906-2022</t>
+          <t>A 38938-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44575.39444444444</v>
+        <v>44411.63415509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,8 +3969,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4027,14 +4012,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39269-2023</t>
+          <t>A 26029-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45166.49605324074</v>
+        <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4046,8 +4031,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>3.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4091,7 +4081,7 @@
         <v>44491</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4141,14 +4131,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 19266-2024</t>
+          <t>A 52802-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45428.62668981482</v>
+        <v>44875</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,8 +4150,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4198,14 +4193,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10516-2022</t>
+          <t>A 59615-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44623.71763888889</v>
+        <v>44491.70662037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4218,7 +4213,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>6.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4255,14 +4250,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10517-2022</t>
+          <t>A 39269-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44623</v>
+        <v>45166.49605324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4275,7 +4270,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4312,14 +4307,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39717-2023</t>
+          <t>A 59609-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45167.62804398148</v>
+        <v>44491.69118055556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4332,7 +4327,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>12.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4369,14 +4364,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61262-2024</t>
+          <t>A 19266-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45645</v>
+        <v>45428.62668981482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4389,7 +4384,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4426,14 +4421,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61264-2024</t>
+          <t>A 52809-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45645</v>
+        <v>44875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,8 +4440,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4483,14 +4483,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 55003-2022</t>
+          <t>A 3683-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44886.51076388889</v>
+        <v>44950</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,8 +4502,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4540,14 +4545,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59609-2021</t>
+          <t>A 1906-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44491.69118055556</v>
+        <v>44575.39444444444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4560,7 +4565,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>12.7</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4597,14 +4602,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5952-2024</t>
+          <t>A 36539-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45335</v>
+        <v>44391.4878587963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4617,7 +4622,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4654,14 +4659,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20197-2023</t>
+          <t>A 59853-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45055</v>
+        <v>44908</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4674,7 +4679,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4711,14 +4716,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40607-2024</t>
+          <t>A 8193-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45556.70357638889</v>
+        <v>44974</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4730,8 +4735,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>10.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4768,14 +4778,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59805-2024</t>
+          <t>A 8228-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45639.60199074074</v>
+        <v>44974</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4788,7 +4798,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>13.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4825,14 +4835,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8193-2023</t>
+          <t>A 31883-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44974</v>
+        <v>44777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4844,13 +4854,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4887,14 +4892,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8228-2023</t>
+          <t>A 23574-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4907,7 +4912,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>13.9</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4944,14 +4949,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51096-2024</t>
+          <t>A 26382-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45603.47366898148</v>
+        <v>45092</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,8 +4968,13 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>20.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5001,14 +5011,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47123-2024</t>
+          <t>A 60736-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45586.5691087963</v>
+        <v>45644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5031,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5058,14 +5068,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38308-2023</t>
+          <t>A 52789-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45161.66641203704</v>
+        <v>45610.55425925926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5088,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5115,14 +5125,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 50058-2021</t>
+          <t>A 19420-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44456.54690972222</v>
+        <v>45429.42680555556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,13 +5144,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5177,14 +5182,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 26029-2022</t>
+          <t>A 60754-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44734</v>
+        <v>45644</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5196,13 +5201,8 @@
           <t>KUNGSÖR</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>9.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31883-2022</t>
+          <t>A 24023-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44777</v>
+        <v>45796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
